--- a/Resultados/Mercado mundial - Miel natural.xlsx
+++ b/Resultados/Mercado mundial - Miel natural.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Türkiye" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Ethiopia" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Iran (Islamic Republic of)" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Argentina" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Etiopía" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Irán (República Islámica del)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Argentina" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -488,18 +488,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Producción (Miles de Toneladas)</a:t>
+              <a:t>Producción (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -514,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -557,7 +557,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +678,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$22</f>
+              <f>'Países importadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$22</f>
+              <f>'Países importadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Türkiye'!$B$12:$B$73</f>
+              <f>'Türkiye'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Türkiye'!$C$12:$C$73</f>
+              <f>'Türkiye'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Ethiopia'!$B$12:$B$73</f>
+              <f>'Etiopía'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Ethiopia'!$C$12:$C$73</f>
+              <f>'Etiopía'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Iran (Islamic Republic of)'!$B$12:$B$73</f>
+              <f>'Irán (República Islámica del)'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Iran (Islamic Republic of)'!$C$12:$C$73</f>
+              <f>'Irán (República Islámica del)'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Argentina'!$B$12:$B$73</f>
+              <f>'Argentina'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Argentina'!$C$12:$C$73</f>
+              <f>'Argentina'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2011,7 +2011,7 @@
   <dimension ref="B2:J124"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2058,7 +2058,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -3383,8 +3383,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3479,7 +3479,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3507,7 +3507,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Etiopía</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3521,7 +3521,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Iran (Islamic Republic of)</t>
+          <t>Irán (República Islámica del)</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3563,7 +3563,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3577,7 +3577,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3591,7 +3591,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -3605,7 +3605,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -3812,7 +3812,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3854,7 +3854,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Ucrania</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3868,7 +3868,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3882,7 +3882,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3896,7 +3896,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3924,7 +3924,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -3938,7 +3938,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4230,7 +4230,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4244,7 +4244,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4258,7 +4258,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4272,7 +4272,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Japón</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4286,7 +4286,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4300,7 +4300,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4314,7 +4314,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4328,7 +4328,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Polonia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4342,7 +4342,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4356,7 +4356,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Arabia Saudita</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4528,7 +4528,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5901,7 +5901,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -7274,7 +7274,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -7816,331 +7816,553 @@
       <c r="H42" s="30" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="28" t="n">
-        <v>1992</v>
-      </c>
-      <c r="C43" s="29" t="inlineStr"/>
-      <c r="D43" s="29" t="inlineStr"/>
-      <c r="E43" s="29" t="inlineStr"/>
+      <c r="B43" s="29" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="C43" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F43" s="29" t="n"/>
       <c r="H43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="inlineStr"/>
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F44" s="29" t="n"/>
       <c r="H44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="n"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
       <c r="H46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
       <c r="H47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
       <c r="H48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
       <c r="H49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
       <c r="H50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
       <c r="H51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
       <c r="H52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
       <c r="H53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
       <c r="H54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
       <c r="H55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
       <c r="H56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
       <c r="H57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
       <c r="H58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
       <c r="H59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
       <c r="H60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
       <c r="H61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
       <c r="H62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
       <c r="H63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
       <c r="H64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
       <c r="H65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
       <c r="H66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
       <c r="H67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -8449,7 +8671,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -9810,7 +10032,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>

--- a/Resultados/Mercado mundial - Miel natural.xlsx
+++ b/Resultados/Mercado mundial - Miel natural.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Etiopía" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Irán (República Islámica del)" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Argentina" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Türkiye" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Ethiopia" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Iran (Islamic Republic of)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Argentina" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +432,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +596,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,10 +842,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Etiopía'!$B$12:$B$74</f>
+              <f>'Ethiopia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Etiopía'!$C$12:$C$74</f>
+              <f>'Ethiopia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Irán (República Islámica del)'!$B$12:$B$74</f>
+              <f>'Iran (Islamic Republic of)'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Irán (República Islámica del)'!$C$12:$C$74</f>
+              <f>'Iran (Islamic Republic of)'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,10 +1088,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2011,7 +2011,7 @@
   <dimension ref="B2:J124"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2058,7 +2058,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -3383,8 +3383,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3479,7 +3479,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3507,7 +3507,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Etiopía</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3521,7 +3521,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Irán (República Islámica del)</t>
+          <t>Iran (Islamic Republic of)</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3563,7 +3563,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Federación de Rusia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3577,7 +3577,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3591,7 +3591,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -3605,7 +3605,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -3812,7 +3812,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3854,7 +3854,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Ucrania</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3868,7 +3868,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3882,7 +3882,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3896,7 +3896,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3924,7 +3924,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -3938,7 +3938,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4230,7 +4230,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4244,7 +4244,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4258,7 +4258,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4272,7 +4272,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Japón</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4286,7 +4286,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4300,7 +4300,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4314,7 +4314,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4328,7 +4328,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Polonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4342,7 +4342,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4356,7 +4356,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Arabia Saudita</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4528,7 +4528,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5901,7 +5901,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -7274,7 +7274,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -7816,553 +7816,331 @@
       <c r="H42" s="30" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="29" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="C43" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B43" s="28" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C43" s="29" t="inlineStr"/>
+      <c r="D43" s="29" t="inlineStr"/>
+      <c r="E43" s="29" t="inlineStr"/>
       <c r="F43" s="29" t="n"/>
       <c r="H43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="29" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="28" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="29" t="inlineStr"/>
+      <c r="D44" s="29" t="inlineStr"/>
+      <c r="E44" s="29" t="inlineStr"/>
       <c r="F44" s="29" t="n"/>
       <c r="H44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" s="28" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C45" s="29" t="inlineStr"/>
+      <c r="D45" s="29" t="inlineStr"/>
+      <c r="E45" s="29" t="inlineStr"/>
+      <c r="F45" s="29" t="n"/>
       <c r="H45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="n"/>
       <c r="H46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="n"/>
       <c r="H47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="n"/>
       <c r="H48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="n"/>
       <c r="H49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="n"/>
       <c r="H50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="n"/>
       <c r="H51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="n"/>
       <c r="H52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="n"/>
       <c r="H53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="n"/>
       <c r="H54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="n"/>
       <c r="H55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="n"/>
       <c r="H56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="n"/>
       <c r="H57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="n"/>
       <c r="H58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="n"/>
       <c r="H59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="n"/>
       <c r="H60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="n"/>
       <c r="H61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="n"/>
       <c r="H62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="n"/>
       <c r="H63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="n"/>
       <c r="H64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="n"/>
       <c r="H65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="n"/>
       <c r="H66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="n"/>
       <c r="H67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -8671,7 +8449,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10032,7 +9810,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>

--- a/Resultados/Mercado mundial - Miel natural.xlsx
+++ b/Resultados/Mercado mundial - Miel natural.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Türkiye" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Ethiopia" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Iran (Islamic Republic of)" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Argentina" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Etiopía" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Irán (República Islámica del)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Argentina" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,341 +406,1033 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Producción (Millones de Toneladas)</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-    </title>
     <plotArea>
+      <layout>
+        <manualLayout>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.009876627426522179"/>
+          <y val="0.01574803149606299"/>
+          <w val="0.9901233725734778"/>
+          <h val="0.984251968503937"/>
+        </manualLayout>
+      </layout>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472C4"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <cat>
-            <numRef>
-              <f>'Mundial'!$B$12:$B$74</f>
-            </numRef>
+            <strRef>
+              <f>Mundial!$B$12:$B$40</f>
+              <strCache>
+                <ptCount val="29"/>
+                <pt idx="0">
+                  <v>2023</v>
+                </pt>
+                <pt idx="1">
+                  <v>2022</v>
+                </pt>
+                <pt idx="2">
+                  <v>2021</v>
+                </pt>
+                <pt idx="3">
+                  <v>2020</v>
+                </pt>
+                <pt idx="4">
+                  <v>2019</v>
+                </pt>
+                <pt idx="5">
+                  <v>2018</v>
+                </pt>
+                <pt idx="6">
+                  <v>2017</v>
+                </pt>
+                <pt idx="7">
+                  <v>2016</v>
+                </pt>
+                <pt idx="8">
+                  <v>2015</v>
+                </pt>
+                <pt idx="9">
+                  <v>2014</v>
+                </pt>
+                <pt idx="10">
+                  <v>2013</v>
+                </pt>
+                <pt idx="11">
+                  <v>2012</v>
+                </pt>
+                <pt idx="12">
+                  <v>2011</v>
+                </pt>
+                <pt idx="13">
+                  <v>2010</v>
+                </pt>
+                <pt idx="14">
+                  <v>2009</v>
+                </pt>
+                <pt idx="15">
+                  <v>2008</v>
+                </pt>
+                <pt idx="16">
+                  <v>2007</v>
+                </pt>
+                <pt idx="17">
+                  <v>2006</v>
+                </pt>
+                <pt idx="18">
+                  <v>2005</v>
+                </pt>
+                <pt idx="19">
+                  <v>2004</v>
+                </pt>
+                <pt idx="20">
+                  <v>2003</v>
+                </pt>
+                <pt idx="21">
+                  <v>2002</v>
+                </pt>
+                <pt idx="22">
+                  <v>2001</v>
+                </pt>
+                <pt idx="23">
+                  <v>2000</v>
+                </pt>
+                <pt idx="24">
+                  <v>1999</v>
+                </pt>
+                <pt idx="25">
+                  <v>1998</v>
+                </pt>
+                <pt idx="26">
+                  <v>1997</v>
+                </pt>
+                <pt idx="27">
+                  <v>1996</v>
+                </pt>
+                <pt idx="28">
+                  <v>1995</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$74</f>
+              <f>Mundial!$C$12:$C$40</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="29"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+                <pt idx="5">
+                  <v>0</v>
+                </pt>
+                <pt idx="6">
+                  <v>0</v>
+                </pt>
+                <pt idx="7">
+                  <v>0</v>
+                </pt>
+                <pt idx="8">
+                  <v>0</v>
+                </pt>
+                <pt idx="9">
+                  <v>0</v>
+                </pt>
+                <pt idx="10">
+                  <v>0</v>
+                </pt>
+                <pt idx="11">
+                  <v>0</v>
+                </pt>
+                <pt idx="12">
+                  <v>0</v>
+                </pt>
+                <pt idx="13">
+                  <v>0</v>
+                </pt>
+                <pt idx="14">
+                  <v>0</v>
+                </pt>
+                <pt idx="15">
+                  <v>0</v>
+                </pt>
+                <pt idx="16">
+                  <v>0</v>
+                </pt>
+                <pt idx="17">
+                  <v>0</v>
+                </pt>
+                <pt idx="18">
+                  <v>0</v>
+                </pt>
+                <pt idx="19">
+                  <v>0</v>
+                </pt>
+                <pt idx="20">
+                  <v>0</v>
+                </pt>
+                <pt idx="21">
+                  <v>0</v>
+                </pt>
+                <pt idx="22">
+                  <v>0</v>
+                </pt>
+                <pt idx="23">
+                  <v>0</v>
+                </pt>
+                <pt idx="24">
+                  <v>0</v>
+                </pt>
+                <pt idx="25">
+                  <v>0</v>
+                </pt>
+                <pt idx="26">
+                  <v>0</v>
+                </pt>
+                <pt idx="27">
+                  <v>0</v>
+                </pt>
+                <pt idx="28">
+                  <v>0</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
         <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
+        <axId val="418425472"/>
+        <axId val="418425864"/>
       </barChart>
       <catAx>
-        <axId val="10"/>
+        <axId val="418425472"/>
         <scaling>
           <orientation val="maxMin"/>
         </scaling>
         <delete val="0"/>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="out"/>
         <minorTickMark val="none"/>
-        <crossAx val="100"/>
+        <tickLblPos val="low"/>
+        <spPr>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" vert="horz"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </txPr>
+        <crossAx val="418425864"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="100"/>
+        <axId val="418425864"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="0"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
-        <majorGridlines/>
-        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
-        <majorTickMark val="none"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:solidFill>
+                <a:srgbClr val="969696"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <majorTickMark val="out"/>
         <minorTickMark val="none"/>
-        <crossAx val="10"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </txPr>
+        <crossAx val="418425472"/>
+        <crosses val="max"/>
+        <crossBetween val="between"/>
+        <dispUnits>
+          <builtInUnit val="millions"/>
+          <dispUnitsLbl/>
+        </dispUnits>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
+  <spPr>
+    <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+      <a:noFill/>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </spPr>
 </chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Producción (Millones de Toneladas)</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-    </title>
     <plotArea>
+      <layout>
+        <manualLayout>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.009876627426522179"/>
+          <y val="0.01574803149606299"/>
+          <w val="0.9901233725734778"/>
+          <h val="0.984251968503937"/>
+        </manualLayout>
+      </layout>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472C4"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <cat>
-            <numRef>
-              <f>'Países productores'!$B$12:$B$23</f>
-            </numRef>
+            <strRef>
+              <f>'Países productores'!$B$12:$B$22</f>
+              <strCache>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>Pais 1</v>
+                </pt>
+                <pt idx="1">
+                  <v>Pais 2</v>
+                </pt>
+                <pt idx="2">
+                  <v>Pais 3</v>
+                </pt>
+                <pt idx="3">
+                  <v>Pais 4</v>
+                </pt>
+                <pt idx="4">
+                  <v>Pais 5</v>
+                </pt>
+                <pt idx="5">
+                  <v>Pais 6</v>
+                </pt>
+                <pt idx="6">
+                  <v>Pais 7</v>
+                </pt>
+                <pt idx="7">
+                  <v>Pais 8</v>
+                </pt>
+                <pt idx="8">
+                  <v>Pais 9</v>
+                </pt>
+                <pt idx="9">
+                  <v>Pais 10</v>
+                </pt>
+                <pt idx="10">
+                  <v>Otros</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$23</f>
+              <f>'Países productores'!$C$12:$C$22</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+                <pt idx="5">
+                  <v>0</v>
+                </pt>
+                <pt idx="6">
+                  <v>0</v>
+                </pt>
+                <pt idx="7">
+                  <v>0</v>
+                </pt>
+                <pt idx="8">
+                  <v>0</v>
+                </pt>
+                <pt idx="9">
+                  <v>0</v>
+                </pt>
+                <pt idx="10">
+                  <v>0</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
         <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
+        <axId val="573539256"/>
+        <axId val="573536512"/>
       </barChart>
       <catAx>
-        <axId val="10"/>
+        <axId val="573539256"/>
         <scaling>
-          <orientation val="maxMin"/>
+          <orientation val="minMax"/>
         </scaling>
         <delete val="0"/>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="out"/>
         <minorTickMark val="none"/>
-        <crossAx val="100"/>
+        <tickLblPos val="low"/>
+        <spPr>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" vert="horz"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </txPr>
+        <crossAx val="573536512"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="100"/>
+        <axId val="573536512"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="0"/>
         </scaling>
         <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
-        <majorTickMark val="none"/>
+        <axPos val="r"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:solidFill>
+                <a:srgbClr val="969696"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="#,##0" sourceLinked="0"/>
+        <majorTickMark val="out"/>
         <minorTickMark val="none"/>
-        <crossAx val="10"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </txPr>
+        <crossAx val="573539256"/>
+        <crosses val="max"/>
+        <crossBetween val="between"/>
+        <dispUnits>
+          <builtInUnit val="thousands"/>
+          <dispUnitsLbl/>
+        </dispUnits>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
+  <spPr>
+    <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+      <a:noFill/>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </spPr>
 </chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Exportaciones (Miles de Toneladas)</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-    </title>
     <plotArea>
+      <layout>
+        <manualLayout>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.009876627426522179"/>
+          <y val="0.01574803149606299"/>
+          <w val="0.9901233725734778"/>
+          <h val="0.984251968503937"/>
+        </manualLayout>
+      </layout>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472C4"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <cat>
-            <numRef>
-              <f>'Países exportadores'!$B$12:$B$23</f>
-            </numRef>
+            <strRef>
+              <f>'Países exportadores'!$B$12:$B$22</f>
+              <strCache>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>Pais 1</v>
+                </pt>
+                <pt idx="1">
+                  <v>Pais 2</v>
+                </pt>
+                <pt idx="2">
+                  <v>Pais 3</v>
+                </pt>
+                <pt idx="3">
+                  <v>Pais 4</v>
+                </pt>
+                <pt idx="4">
+                  <v>Pais 5</v>
+                </pt>
+                <pt idx="5">
+                  <v>Pais 6</v>
+                </pt>
+                <pt idx="6">
+                  <v>Pais 7</v>
+                </pt>
+                <pt idx="7">
+                  <v>Pais 8</v>
+                </pt>
+                <pt idx="8">
+                  <v>Pais 9</v>
+                </pt>
+                <pt idx="9">
+                  <v>Pais 10</v>
+                </pt>
+                <pt idx="10">
+                  <v>Otros</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$23</f>
+              <f>'Países exportadores'!$C$12:$C$22</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+                <pt idx="5">
+                  <v>0</v>
+                </pt>
+                <pt idx="6">
+                  <v>0</v>
+                </pt>
+                <pt idx="7">
+                  <v>0</v>
+                </pt>
+                <pt idx="8">
+                  <v>0</v>
+                </pt>
+                <pt idx="9">
+                  <v>0</v>
+                </pt>
+                <pt idx="10">
+                  <v>0</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
         <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
+        <axId val="573527496"/>
+        <axId val="573528280"/>
       </barChart>
       <catAx>
-        <axId val="10"/>
+        <axId val="573527496"/>
         <scaling>
-          <orientation val="maxMin"/>
+          <orientation val="minMax"/>
         </scaling>
         <delete val="0"/>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="out"/>
         <minorTickMark val="none"/>
-        <crossAx val="100"/>
+        <tickLblPos val="low"/>
+        <spPr>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" vert="horz"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </txPr>
+        <crossAx val="573528280"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="100"/>
+        <axId val="573528280"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="0"/>
         </scaling>
         <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
-        <majorTickMark val="none"/>
+        <axPos val="r"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:solidFill>
+                <a:srgbClr val="969696"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="#,##0" sourceLinked="0"/>
+        <majorTickMark val="out"/>
         <minorTickMark val="none"/>
-        <crossAx val="10"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </txPr>
+        <crossAx val="573527496"/>
+        <crosses val="max"/>
+        <crossBetween val="between"/>
+        <dispUnits>
+          <builtInUnit val="thousands"/>
+          <dispUnitsLbl/>
+        </dispUnits>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
+  <spPr>
+    <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+      <a:noFill/>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </spPr>
 </chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Importaciones (Miles de Toneladas)</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-    </title>
     <plotArea>
+      <layout>
+        <manualLayout>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.009876627426522179"/>
+          <y val="0.01574803149606299"/>
+          <w val="0.9901233725734778"/>
+          <h val="0.984251968503937"/>
+        </manualLayout>
+      </layout>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472C4"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <cat>
-            <numRef>
-              <f>'Países importadores'!$B$12:$B$23</f>
-            </numRef>
+            <strRef>
+              <f>'Países importadores'!$B$12:$B$22</f>
+              <strCache>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>Pais 1</v>
+                </pt>
+                <pt idx="1">
+                  <v>Pais 2</v>
+                </pt>
+                <pt idx="2">
+                  <v>Pais 3</v>
+                </pt>
+                <pt idx="3">
+                  <v>Pais 4</v>
+                </pt>
+                <pt idx="4">
+                  <v>Pais 5</v>
+                </pt>
+                <pt idx="5">
+                  <v>Pais 6</v>
+                </pt>
+                <pt idx="6">
+                  <v>Pais 7</v>
+                </pt>
+                <pt idx="7">
+                  <v>Pais 8</v>
+                </pt>
+                <pt idx="8">
+                  <v>Pais 9</v>
+                </pt>
+                <pt idx="9">
+                  <v>Pais 10</v>
+                </pt>
+                <pt idx="10">
+                  <v>Otros</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$23</f>
+              <f>'Países importadores'!$C$12:$C$22</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+                <pt idx="5">
+                  <v>0</v>
+                </pt>
+                <pt idx="6">
+                  <v>0</v>
+                </pt>
+                <pt idx="7">
+                  <v>0</v>
+                </pt>
+                <pt idx="8">
+                  <v>0</v>
+                </pt>
+                <pt idx="9">
+                  <v>0</v>
+                </pt>
+                <pt idx="10">
+                  <v>0</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
         <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
+        <axId val="573543176"/>
+        <axId val="532916432"/>
       </barChart>
       <catAx>
-        <axId val="10"/>
+        <axId val="573543176"/>
         <scaling>
-          <orientation val="maxMin"/>
+          <orientation val="minMax"/>
         </scaling>
         <delete val="0"/>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="out"/>
         <minorTickMark val="none"/>
-        <crossAx val="100"/>
+        <tickLblPos val="low"/>
+        <spPr>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" vert="horz"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </txPr>
+        <crossAx val="532916432"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="100"/>
+        <axId val="532916432"/>
         <scaling>
           <orientation val="minMax"/>
-          <min val="0"/>
         </scaling>
         <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
-        <majorTickMark val="none"/>
+        <axPos val="r"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:solidFill>
+                <a:srgbClr val="969696"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="#,##0" sourceLinked="0"/>
+        <majorTickMark val="out"/>
         <minorTickMark val="none"/>
-        <crossAx val="10"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </txPr>
+        <crossAx val="573543176"/>
+        <crosses val="max"/>
+        <crossBetween val="between"/>
+        <dispUnits>
+          <builtInUnit val="thousands"/>
+          <dispUnitsLbl/>
+        </dispUnits>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
+  <spPr>
+    <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+      <a:noFill/>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </spPr>
 </chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +1452,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$74</f>
+              <f>'China, Continental'!$B$12:$B$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$74</f>
+              <f>'China, Continental'!$C$12:$C$21</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +1508,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +1534,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Türkiye'!$B$12:$B$74</f>
+              <f>'Türkiye'!$B$12:$B$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Türkiye'!$C$12:$C$74</f>
+              <f>'Türkiye'!$C$12:$C$21</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +1590,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +1616,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Ethiopia'!$B$12:$B$74</f>
+              <f>'Etiopía'!$B$12:$B$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Ethiopia'!$C$12:$C$74</f>
+              <f>'Etiopía'!$C$12:$C$21</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +1672,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1698,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Iran (Islamic Republic of)'!$B$12:$B$74</f>
+              <f>'Irán (República Islámica del)'!$B$12:$B$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Iran (Islamic Republic of)'!$C$12:$C$74</f>
+              <f>'Irán (República Islámica del)'!$C$12:$C$21</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1754,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1780,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Argentina'!$B$12:$B$74</f>
+              <f>'Argentina'!$B$12:$B$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Argentina'!$C$12:$C$74</f>
+              <f>'Argentina'!$C$12:$C$21</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1836,34 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>15</col>
+      <colOff>558800</colOff>
+      <row>25</row>
+      <rowOff>158750</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,59 +1881,64 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
     </pic>
     <clientData/>
   </twoCellAnchor>
-  <oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
     <from>
-      <col>8</col>
-      <colOff>0</colOff>
-      <row>9</row>
-      <rowOff>0</rowOff>
+      <col>7</col>
+      <colOff>95250</colOff>
+      <row>8</row>
+      <rowOff>19050</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <to>
+      <col>13</col>
+      <colOff>654050</colOff>
+      <row>28</row>
+      <rowOff>6350</rowOff>
+    </to>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
     <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  </twoCellAnchor>
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,59 +1956,64 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
     </pic>
     <clientData/>
   </twoCellAnchor>
-  <oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
     <from>
-      <col>8</col>
-      <colOff>0</colOff>
-      <row>9</row>
-      <rowOff>0</rowOff>
+      <col>6</col>
+      <colOff>733425</colOff>
+      <row>8</row>
+      <rowOff>19050</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <to>
+      <col>13</col>
+      <colOff>530225</colOff>
+      <row>28</row>
+      <rowOff>6350</rowOff>
+    </to>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
     <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  </twoCellAnchor>
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,59 +2031,64 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
     </pic>
     <clientData/>
   </twoCellAnchor>
-  <oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
     <from>
-      <col>8</col>
-      <colOff>0</colOff>
-      <row>9</row>
-      <rowOff>0</rowOff>
+      <col>6</col>
+      <colOff>733425</colOff>
+      <row>8</row>
+      <rowOff>19050</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <to>
+      <col>13</col>
+      <colOff>530225</colOff>
+      <row>28</row>
+      <rowOff>6350</rowOff>
+    </to>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
     <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  </twoCellAnchor>
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,32 +2106,37 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
     </pic>
     <clientData/>
   </twoCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1412,36 +2151,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>8</col>
-      <colOff>0</colOff>
-      <row>9</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +2173,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +2188,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +2203,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +2225,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +2240,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +2255,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +2277,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +2292,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +2307,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +2329,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +2344,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +2359,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +2381,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -3479,7 +4191,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3507,7 +4219,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Etiopía</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3521,7 +4233,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Iran (Islamic Republic of)</t>
+          <t>Irán (República Islámica del)</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3563,7 +4275,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3577,7 +4289,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3591,7 +4303,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -3605,7 +4317,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -3812,7 +4524,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3854,7 +4566,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Ucrania</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3868,7 +4580,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3882,7 +4594,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3896,7 +4608,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3924,7 +4636,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -3938,7 +4650,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4230,7 +4942,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4244,7 +4956,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4258,7 +4970,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4272,7 +4984,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Japón</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4286,7 +4998,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4300,7 +5012,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4314,7 +5026,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4328,7 +5040,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Polonia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4342,7 +5054,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4356,7 +5068,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Arabia Saudita</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -7816,331 +8528,553 @@
       <c r="H42" s="30" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="28" t="n">
-        <v>1992</v>
-      </c>
-      <c r="C43" s="29" t="inlineStr"/>
-      <c r="D43" s="29" t="inlineStr"/>
-      <c r="E43" s="29" t="inlineStr"/>
+      <c r="B43" s="29" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="C43" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F43" s="29" t="n"/>
       <c r="H43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="inlineStr"/>
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F44" s="29" t="n"/>
       <c r="H44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="n"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
       <c r="H46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
       <c r="H47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
       <c r="H48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
       <c r="H49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
       <c r="H50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
       <c r="H51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
       <c r="H52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
       <c r="H53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
       <c r="H54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
       <c r="H55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
       <c r="H56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
       <c r="H57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
       <c r="H58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
       <c r="H59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
       <c r="H60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
       <c r="H61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
       <c r="H62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
       <c r="H63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
       <c r="H64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
       <c r="H65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
       <c r="H66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
       <c r="H67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
